--- a/medicine/Enfance/Les_Albums_roses/Les_Albums_roses.xlsx
+++ b/medicine/Enfance/Les_Albums_roses/Les_Albums_roses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Albums roses est une collection française de livres pour la jeunesse créée et publiée par les éditions Hachette de 1950 à 1980[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Albums roses est une collection française de livres pour la jeunesse créée et publiée par les éditions Hachette de 1950 à 1980.
 Une sous-collection sera créée, « Les Grands Albums roses », recueil de deux ou trois « Albums roses ».
 Destinée aux enfants de la Maternelle au CP, la collection compte 340 volumes. Elle édite principalement des livres américains dont Hachette a racheté les droits de copyright, notamment les licences Walt Disney. Paraissent également des œuvres françaises telles que Babar.
 Le principal concurrent des « Albums roses » était la collection « Un petit livre d'argent »  et « Un petit livre d'or » des éditions Deux coqs d'or.
@@ -514,7 +526,9 @@
           <t>Aspect des livres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De petit format (16,5 cm x 19,5 cm), les livres sont reliés et cartonnés, et comptent environ trente pages comportant des illustrations en couleurs. Toutefois, dans les livres parus les premières années, les dessins en noir et blanc seront plus nombreux que les dessins en couleurs.
 La collection doit son nom à ses dos et pages de gardes roses, ainsi qu'aux roses (fleurs) dessinées, à l'origine, sur la quatrième de couverture. Cette présentation changera très vite : les roses disparaîtront et la couleur de la reliure sera diverse et variée. Néanmoins, Hachette conserve le nom d'origine de la collection.
@@ -547,11 +561,48 @@
           <t>Albums roses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste exhaustive par ordre alphabétique des titres parus (la 1re date est celle de la 1re édition) :
-Séries Walt Disney
-Les Aventures d'Alice au pays des merveilles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Les_Albums_roses</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Albums_roses</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Albums roses</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Séries Walt Disney</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Aventures d'Alice au pays des merveilles
 Alice au pays des fleurs (1952)
 Alice et le lapin blanc (1952)
 Alice et le chapelier fou (1956)
@@ -614,8 +665,43 @@
 Trois petits cochons et le sorcier (1955)
 Trois petits cochons font du sport (1953)
 Trois petits cochons campeurs (1956)
-Autres séries
-Babar
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Albums_roses</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Albums_roses</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Albums roses</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres séries</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Babar
 (auteur et illustrateur : Jean de Brunhoff)
 Histoire de Babar le petit éléphant (1950)
 Babar à Celesteville (1952)
@@ -742,10 +828,46 @@
 Youpi au zoo (1956)
 Youpi en vacances (1958)
 Youpi et Caroline (1953)
-Hors-séries : Walt Disney
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Albums_roses</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Albums_roses</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Albums roses</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hors-séries : Walt Disney</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les Amis de Cendrillon (1967. D'après le film Cendrillon de 1950)
 L'Arche de Noé (1953)
-Les Aventures de Scamp[2] (1962. D'après le film La Belle et le Clochard de 1955)
+Les Aventures de Scamp (1962. D'après le film La Belle et le Clochard de 1955)
 La Belle au bois dormant (1959, trad. Marcel Pierre. D'après le film de 1959 du même nom)
 La Belle au bois dormant et les bonnes fées (1959)
 Bongo, le petit ours (1952)
@@ -764,8 +886,8 @@
 Elmer le petit éléphant (1950)
 Ferdinand le taureau (1950. D'après Munro Leaf et Robert Lawson)
 Fidèle Vagabond (1958, trad. Marcel Pierre. D'après le film du mème nom de 1957)
-Goufy et le canard des bois[3] (1950)
-Goufy vedette[3] (1957)
+Goufy et le canard des bois (1950)
+Goufy vedette (1957)
 Grand-père lapin (1952)
 Gredin le petit chien (d'après le film La Belle et le Clochard, 1955)
 Gulliver (1950, texte et illustrations d'après le film Les Voyages de Gulliver, 1939)
@@ -779,7 +901,7 @@
 Le Livre de la jungle (d'après le film de 1967 du même nom)
 Lucky tente sa chance (1964. D'après le film Les 101 Dalmatiens, 1961. Ce titre a d'abord été édité en 1961 sous le titre Rip tente sa chance)
 Les Jouets de Noël
-La Maison des nains[4] (1953)
+La Maison des nains (1953)
 Mary Poppins (d'après le film de 1964 du même nom)
 Mary Poppins et le manège enchanté (1964)
 Mary Poppins et ses amis (auteur: Homer Brightman, traduit par Jan Neely)
@@ -799,8 +921,8 @@
 Quatre Bassets pour un danois (d'après le film de 1966 du même nom)
 Rimes enfantines (1957, trad. Michel Sciama)
 Rip tente sa chance (1961. D'après le film Les 101 Dalmatiens de 1961. Ce tire sera érdité en 1964 sous le nouveau titre de ''Lucky tente sa chance)
-Scamp[5] (1962, Annie North Bedford. D'après le film La Belle et le Clochard, 1955)
-Les Soldats de bois[6] (1963)
+Scamp (1962, Annie North Bedford. D'après le film La Belle et le Clochard, 1955)
+Les Soldats de bois (1963)
 Le Stratagème de Zorro (d'après la série TV Zorro) (1959)
 Le Théâtre de Disneyville (1955)
 Tic et Tac (1955)
@@ -812,7 +934,43 @@
 Winnie l'ourson et l'arbre à miel
 Winnie l'ourson n'a pas de chance
 Zorro (1959, d'après la série télévisée Zorro)
-Hors-séries : autres
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Albums_roses</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Albums_roses</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Albums roses</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Hors-séries : autres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 A.B.C (1961, ill. E. Weihs)
 Alfred le pingouin volant (1953, auteur: Alain Saint Ogan)
 Les Aventures de Zano (1954)
@@ -833,7 +991,7 @@
 Choupinet et Noisette (1952, auteur: Omer Boucquey)
 La Clef magique (1954, auteur: Louis Mirman, ill. Sylvia Hollande)
 Le Cirque Patapouf (1953, ill. René Caillé)
-Cosette[7] de Victor Hugo (1960, adapt. Denis-François, ill. François Batet)
+Cosette de Victor Hugo (1960, adapt. Denis-François, ill. François Batet)
 Coin-Coin, le canard désobéissant de Benjamin Rabier
 Costumes de tous les temps (1958, Jean Muray, ill. Étienne Morel)
 Dandi (1952, illustré par Pierre Probst)
@@ -895,7 +1053,7 @@
 Ploum et les quatre saisons (1965, ill. Romain Simon)
 Ploum n'est pas content (1967)
 Plume aux champs (1954, auteur: Louis Mirman, ill. Sylvia Hollande)
-Poucette[8] (1954, ill. Marianne Clouzot)
+Poucette (1954, ill. Marianne Clouzot)
 Pourquoi pas ? (texte de Hélène et Henry Tanous, ill. J.-P. Miller)
 Qu'est-ce qui fume ? (auteur: Alain Grée)
 Qu'est-ce qu'on tourne ? (auteur: Alain Grée)
@@ -907,7 +1065,7 @@
 Ronron (1961, Texte de J. Meunier, ill. P. et M. Bentegeat)
 Si j'étais (1953, ill. Pierre Probst)
 Simplet, lapin de choux (1952, Benjamin Rabier)
-Ta petite histoire sainte[9] (1955, ill. Simone Brousse)
+Ta petite histoire sainte (1955, ill. Simone Brousse)
 Taupy, la bonne taupe (1952, Benjamin Rabier)
 Tigrette la poule vaniteuse (1957, Benjamin Rabier)
 Teddy fait du sport (auteur: Claude Voilier)
@@ -928,43 +1086,85 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Les_Albums_roses</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Les_Albums_roses</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Les Grands Albums roses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Walt Disney
-Contes pour mes amis[10] (1959)
-Hiawatha et les trois petits cochons[11] (1959)
-Il était une fois[12] (1959)
-Les Joyeux Amis[13] (1958)
-Les Exploits de Donald[14] (1958)
-Autres
-Les Aventures de Picotin[15] (1958, ill. Romain Simon)
-Contes des bois et des champs[16] (1959, ill. Marianne Clouzot)
-Youpi le gentil cocker[17] (1958, ill. Pierre Probst)
-Pipo chien de berger[18] (1958, ill. Pierre Prost)
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Contes pour mes amis (1959)
+Hiawatha et les trois petits cochons (1959)
+Il était une fois (1959)
+Les Joyeux Amis (1958)
+Les Exploits de Donald (1958)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Albums_roses</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Albums_roses</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les Grands Albums roses</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Les Aventures de Picotin (1958, ill. Romain Simon)
+Contes des bois et des champs (1959, ill. Marianne Clouzot)
+Youpi le gentil cocker (1958, ill. Pierre Probst)
+Pipo chien de berger (1958, ill. Pierre Prost)
 </t>
         </is>
       </c>
